--- a/3.2.3/3.2.3.xlsx
+++ b/3.2.3/3.2.3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>f_0n, kHz</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>x, muS</t>
+  </si>
+  <si>
+    <t>L, muH</t>
+  </si>
+  <si>
+    <t>rho, Om</t>
+  </si>
+  <si>
+    <t>Z_res, Om</t>
+  </si>
+  <si>
+    <t>Q</t>
   </si>
 </sst>
 </file>
@@ -402,15 +414,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG17"/>
+  <dimension ref="A1:AR17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AE18" sqref="AE18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -427,67 +439,79 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="U1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="V1" t="s">
         <v>4</v>
       </c>
-      <c r="M1">
+      <c r="X1">
         <v>2</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Y1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Z1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1">
+      <c r="AB1">
         <v>3</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AC1" t="s">
         <v>7</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AD1" t="s">
         <v>8</v>
       </c>
-      <c r="V1">
+      <c r="AG1">
         <v>2</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AH1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AI1" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AJ1" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AK1" t="s">
         <v>15</v>
       </c>
-      <c r="AC1">
+      <c r="AN1">
         <v>3</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AO1" t="s">
         <v>13</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AP1" t="s">
         <v>8</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AQ1" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AR1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -503,52 +527,64 @@
       <c r="E2">
         <v>0.3019</v>
       </c>
-      <c r="J2">
+      <c r="G2">
+        <f>1/(2*3.14*C2*1000)^2/B2*1000000000*1000000</f>
+        <v>986.5225899113592</v>
+      </c>
+      <c r="H2">
+        <f>SQRT(G2/1000000/B2*1000000000)</f>
+        <v>198.25157966858677</v>
+      </c>
+      <c r="I2">
+        <f>D2/E2*$V$2</f>
+        <v>5008.280887711162</v>
+      </c>
+      <c r="U2">
         <v>3.5</v>
       </c>
-      <c r="K2">
+      <c r="V2">
         <v>1008</v>
       </c>
-      <c r="N2">
+      <c r="Y2">
         <v>0.83</v>
       </c>
-      <c r="O2">
+      <c r="Z2">
         <v>28.43</v>
       </c>
-      <c r="R2">
+      <c r="AC2">
         <v>0.6</v>
       </c>
-      <c r="S2">
+      <c r="AD2">
         <v>22.57</v>
       </c>
-      <c r="W2">
-        <f>Z2/Y2*3.14</f>
+      <c r="AH2">
+        <f>AK2/AJ2*3.14</f>
         <v>5.2333333333333334</v>
       </c>
-      <c r="X2">
+      <c r="AI2">
         <v>26.33</v>
       </c>
-      <c r="Y2">
-        <v>18</v>
-      </c>
-      <c r="Z2">
+      <c r="AJ2">
+        <v>18</v>
+      </c>
+      <c r="AK2">
         <v>30</v>
       </c>
-      <c r="AD2">
-        <f>AG2/AF2*3.14</f>
+      <c r="AO2">
+        <f>AR2/AQ2*3.14</f>
         <v>5.1381818181818186</v>
       </c>
-      <c r="AE2">
+      <c r="AP2">
         <v>22.04</v>
       </c>
-      <c r="AF2">
-        <v>22</v>
-      </c>
-      <c r="AG2">
+      <c r="AQ2">
+        <v>22</v>
+      </c>
+      <c r="AR2">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -565,52 +601,64 @@
         <v>0.30199999999999999</v>
       </c>
       <c r="G3">
+        <f t="shared" ref="G3:G8" si="0">1/(2*3.14*C3*1000)^2/B3*1000000000*1000000</f>
+        <v>988.21862997787377</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H8" si="1">SQRT(G3/1000000/B3*1000000000)</f>
+        <v>172.52716129605713</v>
+      </c>
+      <c r="I3">
+        <f>D3/E3*$V$2</f>
+        <v>4606.0927152317881</v>
+      </c>
+      <c r="R3">
         <v>0.82799999999999996</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H8" si="0">0.3*D3</f>
+      <c r="S3">
+        <f>0.3*D3</f>
         <v>0.41399999999999998</v>
       </c>
-      <c r="N3">
+      <c r="Y3">
         <v>0.9</v>
       </c>
-      <c r="O3">
+      <c r="Z3">
         <v>28.32</v>
       </c>
-      <c r="R3">
+      <c r="AC3">
         <v>0.67</v>
       </c>
-      <c r="S3">
+      <c r="AD3">
         <v>22.68</v>
       </c>
-      <c r="W3">
-        <f>Z3/Y3*3.14</f>
+      <c r="AH3">
+        <f>AK3/AJ3*3.14</f>
         <v>5.4077777777777785</v>
       </c>
-      <c r="X3">
+      <c r="AI3">
         <v>27.1</v>
       </c>
-      <c r="Y3">
-        <v>18</v>
-      </c>
-      <c r="Z3">
+      <c r="AJ3">
+        <v>18</v>
+      </c>
+      <c r="AK3">
         <v>31</v>
       </c>
-      <c r="AD3">
-        <f>AG3/AF3*3.14</f>
+      <c r="AO3">
+        <f>AR3/AQ3*3.14</f>
         <v>5.2809090909090912</v>
       </c>
-      <c r="AE3">
+      <c r="AP3">
         <v>22.48</v>
       </c>
-      <c r="AF3">
-        <v>22</v>
-      </c>
-      <c r="AG3">
+      <c r="AQ3">
+        <v>22</v>
+      </c>
+      <c r="AR3">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -627,52 +675,64 @@
         <v>0.30209999999999998</v>
       </c>
       <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1013.3603318294812</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>146.36976632945027</v>
+      </c>
+      <c r="I4">
+        <f>D4/E4*$V$2</f>
+        <v>3303.2770605759683</v>
+      </c>
+      <c r="R4">
         <v>0.59399999999999997</v>
       </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
+      <c r="S4">
+        <f>0.3*D4</f>
         <v>0.29699999999999999</v>
       </c>
-      <c r="N4">
+      <c r="Y4">
         <v>0.95</v>
       </c>
-      <c r="O4">
+      <c r="Z4">
         <v>28.25</v>
       </c>
-      <c r="R4">
+      <c r="AC4">
         <v>0.74</v>
       </c>
-      <c r="S4">
+      <c r="AD4">
         <v>22.77</v>
       </c>
-      <c r="W4">
-        <f>Z4/Y4*3.14</f>
+      <c r="AH4">
+        <f>AK4/AJ4*3.14</f>
         <v>5.931111111111111</v>
       </c>
-      <c r="X4">
+      <c r="AI4">
         <v>27.56</v>
       </c>
-      <c r="Y4">
-        <v>18</v>
-      </c>
-      <c r="Z4">
+      <c r="AJ4">
+        <v>18</v>
+      </c>
+      <c r="AK4">
         <v>34</v>
       </c>
-      <c r="AD4">
-        <f>AG4/AF4*3.14</f>
+      <c r="AO4">
+        <f>AR4/AQ4*3.14</f>
         <v>0.14272727272727273</v>
       </c>
-      <c r="AE4">
+      <c r="AP4">
         <v>23.36</v>
       </c>
-      <c r="AF4">
-        <v>22</v>
-      </c>
-      <c r="AG4">
+      <c r="AQ4">
+        <v>22</v>
+      </c>
+      <c r="AR4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -688,49 +748,61 @@
       <c r="E5">
         <v>0.30209999999999998</v>
       </c>
-      <c r="K5" t="s">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1001.682832607936</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>132.1019319643346</v>
+      </c>
+      <c r="I5">
+        <f>D5/E5*$V$2</f>
+        <v>2836.1469712015892</v>
+      </c>
+      <c r="V5" t="s">
         <v>9</v>
       </c>
-      <c r="N5">
+      <c r="Y5">
         <v>1</v>
       </c>
-      <c r="O5">
+      <c r="Z5">
         <v>28.18</v>
       </c>
-      <c r="R5">
+      <c r="AC5">
         <v>0.77</v>
       </c>
-      <c r="S5">
+      <c r="AD5">
         <v>22.81</v>
       </c>
-      <c r="W5">
-        <f t="shared" ref="W5:W17" si="1">Z5/Y5*3.14</f>
+      <c r="AH5">
+        <f t="shared" ref="AH5:AH17" si="2">AK5/AJ5*3.14</f>
         <v>6.28</v>
       </c>
-      <c r="X5">
+      <c r="AI5">
         <v>27.79</v>
       </c>
-      <c r="Y5">
-        <v>18</v>
-      </c>
-      <c r="Z5">
+      <c r="AJ5">
+        <v>18</v>
+      </c>
+      <c r="AK5">
         <v>36</v>
       </c>
-      <c r="AD5">
-        <f t="shared" ref="AD5:AD17" si="2">AG5/AF5*3.14</f>
+      <c r="AO5">
+        <f t="shared" ref="AO5:AO17" si="3">AR5/AQ5*3.14</f>
         <v>5.4236363636363638</v>
       </c>
-      <c r="AE5">
+      <c r="AP5">
         <v>22.72</v>
       </c>
-      <c r="AF5">
-        <v>22</v>
-      </c>
-      <c r="AG5">
+      <c r="AQ5">
+        <v>22</v>
+      </c>
+      <c r="AR5">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -746,49 +818,61 @@
       <c r="E6">
         <v>0.30199999999999999</v>
       </c>
-      <c r="K6" t="s">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>998.09867679635829</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>121.60035799145392</v>
+      </c>
+      <c r="I6">
+        <f>D6/E6*$V$2</f>
+        <v>2336.4238410596026</v>
+      </c>
+      <c r="V6" t="s">
         <v>10</v>
       </c>
-      <c r="N6">
+      <c r="Y6">
         <v>1.06</v>
       </c>
-      <c r="O6">
+      <c r="Z6">
         <v>28.09</v>
       </c>
-      <c r="R6">
+      <c r="AC6">
         <v>0.83</v>
       </c>
-      <c r="S6">
+      <c r="AD6">
         <v>22.88</v>
       </c>
-      <c r="W6">
-        <f t="shared" si="1"/>
+      <c r="AH6">
+        <f t="shared" si="2"/>
         <v>5.7566666666666668</v>
       </c>
-      <c r="X6">
+      <c r="AI6">
         <v>27.6</v>
       </c>
-      <c r="Y6">
-        <v>18</v>
-      </c>
-      <c r="Z6">
+      <c r="AJ6">
+        <v>18</v>
+      </c>
+      <c r="AK6">
         <v>33</v>
       </c>
-      <c r="AD6">
-        <f t="shared" si="2"/>
+      <c r="AO6">
+        <f t="shared" si="3"/>
         <v>5.5663636363636364</v>
       </c>
-      <c r="AE6">
+      <c r="AP6">
         <v>22.84</v>
       </c>
-      <c r="AF6">
-        <v>22</v>
-      </c>
-      <c r="AG6">
+      <c r="AQ6">
+        <v>22</v>
+      </c>
+      <c r="AR6">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -804,46 +888,58 @@
       <c r="E7">
         <v>0.30199999999999999</v>
       </c>
-      <c r="N7">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>978.65286142847003</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>108.78313746494301</v>
+      </c>
+      <c r="I7">
+        <f>D7/E7*$V$2</f>
+        <v>1969.2715231788079</v>
+      </c>
+      <c r="Y7">
         <v>1.08</v>
       </c>
-      <c r="O7">
+      <c r="Z7">
         <v>28.05</v>
       </c>
-      <c r="R7">
+      <c r="AC7">
         <v>0.85</v>
       </c>
-      <c r="S7">
+      <c r="AD7">
         <v>22.91</v>
       </c>
-      <c r="W7">
-        <f t="shared" si="1"/>
+      <c r="AH7">
+        <f t="shared" si="2"/>
         <v>5.2333333333333334</v>
       </c>
-      <c r="X7">
+      <c r="AI7">
         <v>26.42</v>
       </c>
-      <c r="Y7">
-        <v>18</v>
-      </c>
-      <c r="Z7">
+      <c r="AJ7">
+        <v>18</v>
+      </c>
+      <c r="AK7">
         <v>30</v>
       </c>
-      <c r="AD7">
-        <f t="shared" si="2"/>
+      <c r="AO7">
+        <f t="shared" si="3"/>
         <v>5.2809090909090912</v>
       </c>
-      <c r="AE7">
+      <c r="AP7">
         <v>22.13</v>
       </c>
-      <c r="AF7">
-        <v>22</v>
-      </c>
-      <c r="AG7">
+      <c r="AQ7">
+        <v>22</v>
+      </c>
+      <c r="AR7">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -859,408 +955,424 @@
       <c r="E8">
         <v>0.3019</v>
       </c>
-      <c r="N8">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>962.79816197040088</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>97.346596560503315</v>
+      </c>
+      <c r="I8">
+        <f>D8/E8*$V$2</f>
+        <v>1602.649884067572</v>
+      </c>
+      <c r="Y8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O8">
+      <c r="Z8">
         <v>28.03</v>
       </c>
-      <c r="R8">
+      <c r="AC8">
         <v>0.88</v>
       </c>
-      <c r="S8">
+      <c r="AD8">
         <v>22.95</v>
       </c>
-      <c r="W8">
-        <f t="shared" si="1"/>
+      <c r="AH8">
+        <f t="shared" si="2"/>
         <v>5.4077777777777785</v>
       </c>
-      <c r="X8">
+      <c r="AI8">
         <v>26.15</v>
       </c>
-      <c r="Y8">
-        <v>18</v>
-      </c>
-      <c r="Z8">
+      <c r="AJ8">
+        <v>18</v>
+      </c>
+      <c r="AK8">
         <v>31</v>
       </c>
-      <c r="AD8">
+      <c r="AO8">
+        <f t="shared" si="3"/>
+        <v>5.4236363636363638</v>
+      </c>
+      <c r="AP8">
+        <v>22.56</v>
+      </c>
+      <c r="AQ8">
+        <v>22</v>
+      </c>
+      <c r="AR8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="Y9">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Z9">
+        <v>27.9</v>
+      </c>
+      <c r="AC9">
+        <v>0.9</v>
+      </c>
+      <c r="AD9">
+        <v>22.97</v>
+      </c>
+      <c r="AH9">
         <f t="shared" si="2"/>
+        <v>5.5822222222222218</v>
+      </c>
+      <c r="AI9">
+        <v>27.27</v>
+      </c>
+      <c r="AJ9">
+        <v>18</v>
+      </c>
+      <c r="AK9">
+        <v>32</v>
+      </c>
+      <c r="AO9">
+        <f t="shared" si="3"/>
         <v>5.4236363636363638</v>
       </c>
-      <c r="AE8">
-        <v>22.56</v>
-      </c>
-      <c r="AF8">
-        <v>22</v>
-      </c>
-      <c r="AG8">
+      <c r="AP9">
+        <v>22.62</v>
+      </c>
+      <c r="AQ9">
+        <v>22</v>
+      </c>
+      <c r="AR9">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="N9">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="O9">
-        <v>27.9</v>
-      </c>
-      <c r="R9">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <f>AVERAGE(G2:G8)</f>
+        <v>989.90486921741126</v>
+      </c>
+      <c r="Y10">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="Z10">
+        <v>27.8</v>
+      </c>
+      <c r="AC10">
+        <v>0.97</v>
+      </c>
+      <c r="AD10">
+        <v>23.32</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="2"/>
+        <v>6.28</v>
+      </c>
+      <c r="AI10">
+        <v>27.89</v>
+      </c>
+      <c r="AJ10">
+        <v>18</v>
+      </c>
+      <c r="AK10">
+        <v>36</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" si="3"/>
+        <v>5.8518181818181816</v>
+      </c>
+      <c r="AP10">
+        <v>23.08</v>
+      </c>
+      <c r="AQ10">
+        <v>22</v>
+      </c>
+      <c r="AR10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="Y11">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="Z11">
+        <v>27.68</v>
+      </c>
+      <c r="AC11">
+        <v>0.86</v>
+      </c>
+      <c r="AD11">
+        <v>23.48</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="2"/>
+        <v>6.4544444444444444</v>
+      </c>
+      <c r="AI11">
+        <v>27.92</v>
+      </c>
+      <c r="AJ11">
+        <v>18</v>
+      </c>
+      <c r="AK11">
+        <v>37</v>
+      </c>
+      <c r="AO11">
+        <f t="shared" si="3"/>
+        <v>5.9945454545454551</v>
+      </c>
+      <c r="AP11">
+        <v>23.12</v>
+      </c>
+      <c r="AQ11">
+        <v>22</v>
+      </c>
+      <c r="AR11">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="Y12">
+        <v>1.02</v>
+      </c>
+      <c r="Z12">
+        <v>27.5</v>
+      </c>
+      <c r="AC12">
+        <v>0.82</v>
+      </c>
+      <c r="AD12">
+        <v>23.54</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="2"/>
+        <v>6.1055555555555561</v>
+      </c>
+      <c r="AI12">
+        <v>28.4</v>
+      </c>
+      <c r="AJ12">
+        <v>18</v>
+      </c>
+      <c r="AK12">
+        <v>35</v>
+      </c>
+      <c r="AO12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>23.22</v>
+      </c>
+      <c r="AQ12">
+        <v>22</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="Y13">
+        <v>0.97</v>
+      </c>
+      <c r="Z13">
+        <v>27.45</v>
+      </c>
+      <c r="AC13">
+        <v>0.81</v>
+      </c>
+      <c r="AD13">
+        <v>23.56</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="2"/>
+        <v>1.0466666666666666</v>
+      </c>
+      <c r="AI13">
+        <v>29.39</v>
+      </c>
+      <c r="AJ13">
+        <v>18</v>
+      </c>
+      <c r="AK13">
+        <v>6</v>
+      </c>
+      <c r="AO13">
+        <f t="shared" si="3"/>
+        <v>0.28545454545454546</v>
+      </c>
+      <c r="AP13">
+        <v>23.47</v>
+      </c>
+      <c r="AQ13">
+        <v>22</v>
+      </c>
+      <c r="AR13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="Y14">
+        <v>0.93</v>
+      </c>
+      <c r="Z14">
+        <v>27.4</v>
+      </c>
+      <c r="AC14">
+        <v>0.77</v>
+      </c>
+      <c r="AD14">
+        <v>23.6</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="2"/>
+        <v>1.2211111111111113</v>
+      </c>
+      <c r="AI14">
+        <v>29.04</v>
+      </c>
+      <c r="AJ14">
+        <v>18</v>
+      </c>
+      <c r="AK14">
+        <v>7</v>
+      </c>
+      <c r="AO14">
+        <f t="shared" si="3"/>
+        <v>0.57090909090909092</v>
+      </c>
+      <c r="AP14">
+        <v>23.53</v>
+      </c>
+      <c r="AQ14">
+        <v>22</v>
+      </c>
+      <c r="AR14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="Y15">
         <v>0.9</v>
       </c>
-      <c r="S9">
-        <v>22.97</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="1"/>
-        <v>5.5822222222222218</v>
-      </c>
-      <c r="X9">
-        <v>27.27</v>
-      </c>
-      <c r="Y9">
-        <v>18</v>
-      </c>
-      <c r="Z9">
-        <v>32</v>
-      </c>
-      <c r="AD9">
+      <c r="Z15">
+        <v>27.36</v>
+      </c>
+      <c r="AC15">
+        <v>0.66</v>
+      </c>
+      <c r="AD15">
+        <v>23.76</v>
+      </c>
+      <c r="AH15">
         <f t="shared" si="2"/>
-        <v>5.4236363636363638</v>
-      </c>
-      <c r="AE9">
-        <v>22.62</v>
-      </c>
-      <c r="AF9">
-        <v>22</v>
-      </c>
-      <c r="AG9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="N10">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="O10">
-        <v>27.8</v>
-      </c>
-      <c r="R10">
-        <v>0.97</v>
-      </c>
-      <c r="S10">
-        <v>23.32</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="1"/>
-        <v>6.28</v>
-      </c>
-      <c r="X10">
-        <v>27.89</v>
-      </c>
-      <c r="Y10">
-        <v>18</v>
-      </c>
-      <c r="Z10">
-        <v>36</v>
-      </c>
-      <c r="AD10">
+        <v>1.0466666666666666</v>
+      </c>
+      <c r="AI15">
+        <v>28.78</v>
+      </c>
+      <c r="AJ15">
+        <v>18</v>
+      </c>
+      <c r="AK15">
+        <v>6</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="3"/>
+        <v>0.85636363636363633</v>
+      </c>
+      <c r="AP15">
+        <v>23.78</v>
+      </c>
+      <c r="AQ15">
+        <v>22</v>
+      </c>
+      <c r="AR15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="Y16">
+        <v>0.85</v>
+      </c>
+      <c r="Z16">
+        <v>27.29</v>
+      </c>
+      <c r="AC16">
+        <v>0.65</v>
+      </c>
+      <c r="AD16">
+        <v>23.79</v>
+      </c>
+      <c r="AH16">
         <f t="shared" si="2"/>
-        <v>5.8518181818181816</v>
-      </c>
-      <c r="AE10">
-        <v>23.08</v>
-      </c>
-      <c r="AF10">
-        <v>22</v>
-      </c>
-      <c r="AG10">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="N11">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="O11">
-        <v>27.68</v>
-      </c>
-      <c r="R11">
-        <v>0.86</v>
-      </c>
-      <c r="S11">
-        <v>23.48</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="1"/>
-        <v>6.4544444444444444</v>
-      </c>
-      <c r="X11">
-        <v>27.92</v>
-      </c>
-      <c r="Y11">
-        <v>18</v>
-      </c>
-      <c r="Z11">
-        <v>37</v>
-      </c>
-      <c r="AD11">
+        <v>0.52333333333333332</v>
+      </c>
+      <c r="AI16">
+        <v>28.15</v>
+      </c>
+      <c r="AJ16">
+        <v>18</v>
+      </c>
+      <c r="AK16">
+        <v>3</v>
+      </c>
+      <c r="AO16">
+        <f t="shared" si="3"/>
+        <v>0.71363636363636362</v>
+      </c>
+      <c r="AP16">
+        <v>23.64</v>
+      </c>
+      <c r="AQ16">
+        <v>22</v>
+      </c>
+      <c r="AR16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="25:44" x14ac:dyDescent="0.3">
+      <c r="Y17">
+        <v>0.82</v>
+      </c>
+      <c r="Z17">
+        <v>27.26</v>
+      </c>
+      <c r="AC17">
+        <v>0.61</v>
+      </c>
+      <c r="AD17">
+        <v>23.84</v>
+      </c>
+      <c r="AH17">
         <f t="shared" si="2"/>
-        <v>5.9945454545454551</v>
-      </c>
-      <c r="AE11">
-        <v>23.12</v>
-      </c>
-      <c r="AF11">
-        <v>22</v>
-      </c>
-      <c r="AG11">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="N12">
-        <v>1.02</v>
-      </c>
-      <c r="O12">
-        <v>27.5</v>
-      </c>
-      <c r="R12">
-        <v>0.82</v>
-      </c>
-      <c r="S12">
-        <v>23.54</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="1"/>
-        <v>6.1055555555555561</v>
-      </c>
-      <c r="X12">
-        <v>28.4</v>
-      </c>
-      <c r="Y12">
-        <v>18</v>
-      </c>
-      <c r="Z12">
-        <v>35</v>
-      </c>
-      <c r="AD12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>23.22</v>
-      </c>
-      <c r="AF12">
-        <v>22</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="N13">
-        <v>0.97</v>
-      </c>
-      <c r="O13">
-        <v>27.45</v>
-      </c>
-      <c r="R13">
-        <v>0.81</v>
-      </c>
-      <c r="S13">
-        <v>23.56</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="1"/>
-        <v>1.0466666666666666</v>
-      </c>
-      <c r="X13">
-        <v>29.39</v>
-      </c>
-      <c r="Y13">
-        <v>18</v>
-      </c>
-      <c r="Z13">
-        <v>6</v>
-      </c>
-      <c r="AD13">
-        <f t="shared" si="2"/>
-        <v>0.28545454545454546</v>
-      </c>
-      <c r="AE13">
-        <v>23.47</v>
-      </c>
-      <c r="AF13">
-        <v>22</v>
-      </c>
-      <c r="AG13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="N14">
-        <v>0.93</v>
-      </c>
-      <c r="O14">
-        <v>27.4</v>
-      </c>
-      <c r="R14">
-        <v>0.77</v>
-      </c>
-      <c r="S14">
-        <v>23.6</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="1"/>
-        <v>1.2211111111111113</v>
-      </c>
-      <c r="X14">
-        <v>29.04</v>
-      </c>
-      <c r="Y14">
-        <v>18</v>
-      </c>
-      <c r="Z14">
+        <v>0.69777777777777772</v>
+      </c>
+      <c r="AI17">
+        <v>28.26</v>
+      </c>
+      <c r="AJ17">
+        <v>18</v>
+      </c>
+      <c r="AK17">
+        <v>4</v>
+      </c>
+      <c r="AO17">
+        <f t="shared" si="3"/>
+        <v>0.99909090909090914</v>
+      </c>
+      <c r="AP17">
+        <v>24.2</v>
+      </c>
+      <c r="AQ17">
+        <v>22</v>
+      </c>
+      <c r="AR17">
         <v>7</v>
       </c>
-      <c r="AD14">
-        <f t="shared" si="2"/>
-        <v>0.57090909090909092</v>
-      </c>
-      <c r="AE14">
-        <v>23.53</v>
-      </c>
-      <c r="AF14">
-        <v>22</v>
-      </c>
-      <c r="AG14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="N15">
-        <v>0.9</v>
-      </c>
-      <c r="O15">
-        <v>27.36</v>
-      </c>
-      <c r="R15">
-        <v>0.66</v>
-      </c>
-      <c r="S15">
-        <v>23.76</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="1"/>
-        <v>1.0466666666666666</v>
-      </c>
-      <c r="X15">
-        <v>28.78</v>
-      </c>
-      <c r="Y15">
-        <v>18</v>
-      </c>
-      <c r="Z15">
-        <v>6</v>
-      </c>
-      <c r="AD15">
-        <f t="shared" si="2"/>
-        <v>0.85636363636363633</v>
-      </c>
-      <c r="AE15">
-        <v>23.78</v>
-      </c>
-      <c r="AF15">
-        <v>22</v>
-      </c>
-      <c r="AG15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="N16">
-        <v>0.85</v>
-      </c>
-      <c r="O16">
-        <v>27.29</v>
-      </c>
-      <c r="R16">
-        <v>0.65</v>
-      </c>
-      <c r="S16">
-        <v>23.79</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="1"/>
-        <v>0.52333333333333332</v>
-      </c>
-      <c r="X16">
-        <v>28.15</v>
-      </c>
-      <c r="Y16">
-        <v>18</v>
-      </c>
-      <c r="Z16">
-        <v>3</v>
-      </c>
-      <c r="AD16">
-        <f t="shared" si="2"/>
-        <v>0.71363636363636362</v>
-      </c>
-      <c r="AE16">
-        <v>23.64</v>
-      </c>
-      <c r="AF16">
-        <v>22</v>
-      </c>
-      <c r="AG16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="14:33" x14ac:dyDescent="0.3">
-      <c r="N17">
-        <v>0.82</v>
-      </c>
-      <c r="O17">
-        <v>27.26</v>
-      </c>
-      <c r="R17">
-        <v>0.61</v>
-      </c>
-      <c r="S17">
-        <v>23.84</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="1"/>
-        <v>0.69777777777777772</v>
-      </c>
-      <c r="X17">
-        <v>28.26</v>
-      </c>
-      <c r="Y17">
-        <v>18</v>
-      </c>
-      <c r="Z17">
-        <v>4</v>
-      </c>
-      <c r="AD17">
-        <f t="shared" si="2"/>
-        <v>0.99909090909090914</v>
-      </c>
-      <c r="AE17">
-        <v>24.2</v>
-      </c>
-      <c r="AF17">
-        <v>22</v>
-      </c>
-      <c r="AG17">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="Q2:S17">
-    <sortCondition ref="S1"/>
+  <sortState ref="AB2:AD17">
+    <sortCondition ref="AD1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3.2.3/3.2.3.xlsx
+++ b/3.2.3/3.2.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,23 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>f_0n, kHz</t>
   </si>
@@ -76,16 +88,46 @@
   </si>
   <si>
     <t>Q</t>
+  </si>
+  <si>
+    <t>Среднее значение</t>
+  </si>
+  <si>
+    <t>Случайная погрешность</t>
+  </si>
+  <si>
+    <t>R_sum, Ом</t>
+  </si>
+  <si>
+    <t>R_sm, Ом</t>
+  </si>
+  <si>
+    <t>R_L, Ом</t>
+  </si>
+  <si>
+    <t>U отн</t>
+  </si>
+  <si>
+    <t>f отн</t>
+  </si>
+  <si>
+    <t>df</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,6 +164,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -414,15 +459,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR17"/>
+  <dimension ref="A1:BA17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR15" sqref="AR15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="9" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -438,16 +489,31 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
         <v>19</v>
       </c>
       <c r="R1" t="s">
@@ -471,47 +537,56 @@
       <c r="Z1" t="s">
         <v>8</v>
       </c>
-      <c r="AB1">
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP1">
+        <v>2</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW1">
         <v>3</v>
       </c>
-      <c r="AC1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD1" t="s">
+      <c r="AX1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY1" t="s">
         <v>8</v>
       </c>
-      <c r="AG1">
-        <v>2</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ1" t="s">
+      <c r="AZ1" t="s">
         <v>14</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="BA1" t="s">
         <v>15</v>
       </c>
-      <c r="AN1">
-        <v>3</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -527,17 +602,44 @@
       <c r="E2">
         <v>0.3019</v>
       </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F8" si="0">1/(2*3.14*C2*1000)^2/B2*1000000000*1000000</f>
+        <v>986.5225899113592</v>
+      </c>
       <c r="G2">
-        <f>1/(2*3.14*C2*1000)^2/B2*1000000000*1000000</f>
-        <v>986.5225899113592</v>
+        <f t="shared" ref="G2:G8" si="1">SQRT(F2/1000000/B2*1000000000)</f>
+        <v>198.25157966858677</v>
       </c>
       <c r="H2">
-        <f>SQRT(G2/1000000/B2*1000000000)</f>
-        <v>198.25157966858677</v>
+        <f t="shared" ref="H2:H8" si="2">D2/E2*$V$2</f>
+        <v>5008.280887711162</v>
       </c>
       <c r="I2">
-        <f>D2/E2*$V$2</f>
-        <v>5008.280887711162</v>
+        <f>D2*$V$2/E2*2*PI()*C2*1000*B2/1000000000</f>
+        <v>25.275062972357357</v>
+      </c>
+      <c r="J2">
+        <f>E2/D2/$V$2/POWER((2*PI()*C2*1000*B2/1000000000),2)</f>
+        <v>7.8397855935439287</v>
+      </c>
+      <c r="K2">
+        <f>1/1000*G2</f>
+        <v>0.19825157966858678</v>
+      </c>
+      <c r="L2">
+        <f>J2-$U$2-K2</f>
+        <v>4.1415340138753418</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <f>1.0148-0.9875</f>
+        <v>2.729999999999988E-2</v>
+      </c>
+      <c r="P2">
+        <f>1/O2</f>
+        <v>36.630036630036791</v>
       </c>
       <c r="U2">
         <v>3.5</v>
@@ -551,40 +653,56 @@
       <c r="Z2">
         <v>28.43</v>
       </c>
-      <c r="AC2">
+      <c r="AA2">
+        <f>Y2/$D$3</f>
+        <v>0.60144927536231885</v>
+      </c>
+      <c r="AB2">
+        <f>Z2/$C$3</f>
+        <v>1.022661870503597</v>
+      </c>
+      <c r="AF2">
         <v>0.6</v>
       </c>
-      <c r="AD2">
+      <c r="AG2">
         <v>22.57</v>
       </c>
       <c r="AH2">
-        <f>AK2/AJ2*3.14</f>
-        <v>5.2333333333333334</v>
+        <f>AF2/$D$4</f>
+        <v>0.60606060606060608</v>
       </c>
       <c r="AI2">
-        <v>26.33</v>
-      </c>
-      <c r="AJ2">
+        <f>AG2/$C$4</f>
+        <v>0.981304347826087</v>
+      </c>
+      <c r="AQ2">
+        <f>AT2/AS2*3.14</f>
+        <v>5.4077777777777785</v>
+      </c>
+      <c r="AR2">
+        <v>26.15</v>
+      </c>
+      <c r="AS2">
         <v>18</v>
       </c>
-      <c r="AK2">
-        <v>30</v>
-      </c>
-      <c r="AO2">
-        <f>AR2/AQ2*3.14</f>
+      <c r="AT2">
+        <v>31</v>
+      </c>
+      <c r="AX2">
+        <f>BA2/AZ2*3.14</f>
         <v>5.1381818181818186</v>
       </c>
-      <c r="AP2">
+      <c r="AY2">
         <v>22.04</v>
       </c>
-      <c r="AQ2">
+      <c r="AZ2">
         <v>22</v>
       </c>
-      <c r="AR2">
+      <c r="BA2">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -600,17 +718,44 @@
       <c r="E3">
         <v>0.30199999999999999</v>
       </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>988.21862997787377</v>
+      </c>
       <c r="G3">
-        <f t="shared" ref="G3:G8" si="0">1/(2*3.14*C3*1000)^2/B3*1000000000*1000000</f>
-        <v>988.21862997787377</v>
+        <f t="shared" si="1"/>
+        <v>172.52716129605713</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H8" si="1">SQRT(G3/1000000/B3*1000000000)</f>
-        <v>172.52716129605713</v>
+        <f t="shared" si="2"/>
+        <v>4606.0927152317881</v>
       </c>
       <c r="I3">
-        <f>D3/E3*$V$2</f>
-        <v>4606.0927152317881</v>
+        <f>D3*$V$2/E3*2*PI()*C3*1000*B3/1000000000</f>
+        <v>26.711324510955876</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J8" si="3">E3/D3/$V$2/POWER((2*PI()*C3*1000*B3/1000000000),2)</f>
+        <v>6.4556775276029539</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K8" si="4">1/1000*G3</f>
+        <v>0.17252716129605714</v>
+      </c>
+      <c r="L3">
+        <f>J3-$U$2-K3</f>
+        <v>2.7831503663068968</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <f>1.0305-0.9875</f>
+        <v>4.2999999999999927E-2</v>
+      </c>
+      <c r="P3">
+        <f>1/O3</f>
+        <v>23.25581395348841</v>
       </c>
       <c r="R3">
         <v>0.82799999999999996</v>
@@ -625,40 +770,56 @@
       <c r="Z3">
         <v>28.32</v>
       </c>
-      <c r="AC3">
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA17" si="5">Y3/$D$3</f>
+        <v>0.65217391304347838</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB17" si="6">Z3/$C$3</f>
+        <v>1.0187050359712231</v>
+      </c>
+      <c r="AF3">
         <v>0.67</v>
       </c>
-      <c r="AD3">
+      <c r="AG3">
         <v>22.68</v>
       </c>
       <c r="AH3">
-        <f>AK3/AJ3*3.14</f>
-        <v>5.4077777777777785</v>
+        <f t="shared" ref="AH3:AH17" si="7">AF3/$D$4</f>
+        <v>0.6767676767676768</v>
       </c>
       <c r="AI3">
-        <v>27.1</v>
-      </c>
-      <c r="AJ3">
+        <f t="shared" ref="AI3:AI17" si="8">AG3/$C$4</f>
+        <v>0.98608695652173917</v>
+      </c>
+      <c r="AQ3">
+        <f>AT3/AS3*3.14</f>
+        <v>5.2333333333333334</v>
+      </c>
+      <c r="AR3">
+        <v>26.33</v>
+      </c>
+      <c r="AS3">
         <v>18</v>
       </c>
-      <c r="AK3">
-        <v>31</v>
-      </c>
-      <c r="AO3">
-        <f>AR3/AQ3*3.14</f>
+      <c r="AT3">
+        <v>30</v>
+      </c>
+      <c r="AX3">
+        <f>BA3/AZ3*3.14</f>
         <v>5.2809090909090912</v>
       </c>
-      <c r="AP3">
+      <c r="AY3">
         <v>22.48</v>
       </c>
-      <c r="AQ3">
+      <c r="AZ3">
         <v>22</v>
       </c>
-      <c r="AR3">
+      <c r="BA3">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -674,17 +835,33 @@
       <c r="E4">
         <v>0.30209999999999998</v>
       </c>
-      <c r="G4">
+      <c r="F4">
         <f t="shared" si="0"/>
         <v>1013.3603318294812</v>
       </c>
-      <c r="H4">
+      <c r="G4">
         <f t="shared" si="1"/>
         <v>146.36976632945027</v>
       </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>3303.2770605759683</v>
+      </c>
       <c r="I4">
-        <f>D4/E4*$V$2</f>
-        <v>3303.2770605759683</v>
+        <f t="shared" ref="I4:I8" si="9">D4*$V$2/E4*2*PI()*C4*1000*B4/1000000000</f>
+        <v>22.579475348909817</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>6.4791391666609286</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="4"/>
+        <v>0.14636976632945028</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L8" si="10">J4-$U$2-K4</f>
+        <v>2.8327694003314785</v>
       </c>
       <c r="R4">
         <v>0.59399999999999997</v>
@@ -699,40 +876,56 @@
       <c r="Z4">
         <v>28.25</v>
       </c>
-      <c r="AC4">
+      <c r="AA4">
+        <f t="shared" si="5"/>
+        <v>0.68840579710144933</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="6"/>
+        <v>1.0161870503597121</v>
+      </c>
+      <c r="AF4">
         <v>0.74</v>
       </c>
-      <c r="AD4">
+      <c r="AG4">
         <v>22.77</v>
       </c>
       <c r="AH4">
-        <f>AK4/AJ4*3.14</f>
-        <v>5.931111111111111</v>
+        <f t="shared" si="7"/>
+        <v>0.74747474747474751</v>
       </c>
       <c r="AI4">
-        <v>27.56</v>
-      </c>
-      <c r="AJ4">
+        <f t="shared" si="8"/>
+        <v>0.99</v>
+      </c>
+      <c r="AQ4">
+        <f>AT4/AS4*3.14</f>
+        <v>5.2333333333333334</v>
+      </c>
+      <c r="AR4">
+        <v>26.42</v>
+      </c>
+      <c r="AS4">
         <v>18</v>
       </c>
-      <c r="AK4">
-        <v>34</v>
-      </c>
-      <c r="AO4">
-        <f>AR4/AQ4*3.14</f>
+      <c r="AT4">
+        <v>30</v>
+      </c>
+      <c r="AX4">
+        <f>BA4/AZ4*3.14</f>
         <v>0.14272727272727273</v>
       </c>
-      <c r="AP4">
+      <c r="AY4">
         <v>23.36</v>
       </c>
-      <c r="AQ4">
+      <c r="AZ4">
         <v>22</v>
       </c>
-      <c r="AR4">
+      <c r="BA4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -748,17 +941,33 @@
       <c r="E5">
         <v>0.30209999999999998</v>
       </c>
-      <c r="G5">
+      <c r="F5">
         <f t="shared" si="0"/>
         <v>1001.682832607936</v>
       </c>
-      <c r="H5">
+      <c r="G5">
         <f t="shared" si="1"/>
         <v>132.1019319643346</v>
       </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>2836.1469712015892</v>
+      </c>
       <c r="I5">
-        <f>D5/E5*$V$2</f>
-        <v>2836.1469712015892</v>
+        <f t="shared" si="9"/>
+        <v>21.480272573830504</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>6.1468010455085631</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>0.13210193196433459</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="10"/>
+        <v>2.5146991135442285</v>
       </c>
       <c r="V5" t="s">
         <v>9</v>
@@ -769,40 +978,56 @@
       <c r="Z5">
         <v>28.18</v>
       </c>
-      <c r="AC5">
+      <c r="AA5">
+        <f t="shared" si="5"/>
+        <v>0.7246376811594204</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="6"/>
+        <v>1.0136690647482014</v>
+      </c>
+      <c r="AF5">
         <v>0.77</v>
       </c>
-      <c r="AD5">
+      <c r="AG5">
         <v>22.81</v>
       </c>
       <c r="AH5">
-        <f t="shared" ref="AH5:AH17" si="2">AK5/AJ5*3.14</f>
-        <v>6.28</v>
+        <f t="shared" si="7"/>
+        <v>0.77777777777777779</v>
       </c>
       <c r="AI5">
-        <v>27.79</v>
-      </c>
-      <c r="AJ5">
+        <f t="shared" si="8"/>
+        <v>0.99173913043478257</v>
+      </c>
+      <c r="AQ5">
+        <f>AT5/AS5*3.14</f>
+        <v>5.4077777777777785</v>
+      </c>
+      <c r="AR5">
+        <v>27.1</v>
+      </c>
+      <c r="AS5">
         <v>18</v>
       </c>
-      <c r="AK5">
-        <v>36</v>
-      </c>
-      <c r="AO5">
-        <f t="shared" ref="AO5:AO17" si="3">AR5/AQ5*3.14</f>
+      <c r="AT5">
+        <v>31</v>
+      </c>
+      <c r="AX5">
+        <f t="shared" ref="AX5:AX17" si="11">BA5/AZ5*3.14</f>
         <v>5.4236363636363638</v>
       </c>
-      <c r="AP5">
+      <c r="AY5">
         <v>22.72</v>
       </c>
-      <c r="AQ5">
+      <c r="AZ5">
         <v>22</v>
       </c>
-      <c r="AR5">
+      <c r="BA5">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -818,17 +1043,33 @@
       <c r="E6">
         <v>0.30199999999999999</v>
       </c>
-      <c r="G6">
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>998.09867679635829</v>
       </c>
-      <c r="H6">
+      <c r="G6">
         <f t="shared" si="1"/>
         <v>121.60035799145392</v>
       </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>2336.4238410596026</v>
+      </c>
       <c r="I6">
-        <f>D6/E6*$V$2</f>
-        <v>2336.4238410596026</v>
+        <f t="shared" si="9"/>
+        <v>19.223700881856875</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>6.3223368142871044</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>0.12160035799145393</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="10"/>
+        <v>2.7007364562956506</v>
       </c>
       <c r="V6" t="s">
         <v>10</v>
@@ -839,40 +1080,56 @@
       <c r="Z6">
         <v>28.09</v>
       </c>
-      <c r="AC6">
+      <c r="AA6">
+        <f t="shared" si="5"/>
+        <v>0.76811594202898559</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="6"/>
+        <v>1.0104316546762591</v>
+      </c>
+      <c r="AF6">
         <v>0.83</v>
       </c>
-      <c r="AD6">
+      <c r="AG6">
         <v>22.88</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="2"/>
-        <v>5.7566666666666668</v>
+        <f t="shared" si="7"/>
+        <v>0.83838383838383834</v>
       </c>
       <c r="AI6">
-        <v>27.6</v>
-      </c>
-      <c r="AJ6">
+        <f t="shared" si="8"/>
+        <v>0.99478260869565216</v>
+      </c>
+      <c r="AQ6">
+        <f>AT6/AS6*3.14</f>
+        <v>5.5822222222222218</v>
+      </c>
+      <c r="AR6">
+        <v>27.27</v>
+      </c>
+      <c r="AS6">
         <v>18</v>
       </c>
-      <c r="AK6">
-        <v>33</v>
-      </c>
-      <c r="AO6">
-        <f t="shared" si="3"/>
+      <c r="AT6">
+        <v>32</v>
+      </c>
+      <c r="AX6">
+        <f t="shared" si="11"/>
         <v>5.5663636363636364</v>
       </c>
-      <c r="AP6">
+      <c r="AY6">
         <v>22.84</v>
       </c>
-      <c r="AQ6">
+      <c r="AZ6">
         <v>22</v>
       </c>
-      <c r="AR6">
+      <c r="BA6">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -888,17 +1145,33 @@
       <c r="E7">
         <v>0.30199999999999999</v>
       </c>
-      <c r="G7">
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>978.65286142847003</v>
       </c>
-      <c r="H7">
+      <c r="G7">
         <f t="shared" si="1"/>
         <v>108.78313746494301</v>
       </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>1969.2715231788079</v>
+      </c>
       <c r="I7">
-        <f>D7/E7*$V$2</f>
-        <v>1969.2715231788079</v>
+        <f t="shared" si="9"/>
+        <v>18.111909733457082</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>6.00312118657612</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>0.10878313746494302</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="10"/>
+        <v>2.3943380491111772</v>
       </c>
       <c r="Y7">
         <v>1.08</v>
@@ -906,40 +1179,56 @@
       <c r="Z7">
         <v>28.05</v>
       </c>
-      <c r="AC7">
+      <c r="AA7">
+        <f t="shared" si="5"/>
+        <v>0.78260869565217406</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="6"/>
+        <v>1.0089928057553956</v>
+      </c>
+      <c r="AF7">
         <v>0.85</v>
       </c>
-      <c r="AD7">
+      <c r="AG7">
         <v>22.91</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="2"/>
-        <v>5.2333333333333334</v>
+        <f t="shared" si="7"/>
+        <v>0.85858585858585856</v>
       </c>
       <c r="AI7">
-        <v>26.42</v>
-      </c>
-      <c r="AJ7">
+        <f t="shared" si="8"/>
+        <v>0.99608695652173918</v>
+      </c>
+      <c r="AQ7">
+        <f>AT7/AS7*3.14</f>
+        <v>5.931111111111111</v>
+      </c>
+      <c r="AR7">
+        <v>27.56</v>
+      </c>
+      <c r="AS7">
         <v>18</v>
       </c>
-      <c r="AK7">
-        <v>30</v>
-      </c>
-      <c r="AO7">
-        <f t="shared" si="3"/>
+      <c r="AT7">
+        <v>34</v>
+      </c>
+      <c r="AX7">
+        <f t="shared" si="11"/>
         <v>5.2809090909090912</v>
       </c>
-      <c r="AP7">
+      <c r="AY7">
         <v>22.13</v>
       </c>
-      <c r="AQ7">
+      <c r="AZ7">
         <v>22</v>
       </c>
-      <c r="AR7">
+      <c r="BA7">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -955,17 +1244,33 @@
       <c r="E8">
         <v>0.3019</v>
       </c>
-      <c r="G8">
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>962.79816197040088</v>
       </c>
-      <c r="H8">
+      <c r="G8">
         <f t="shared" si="1"/>
         <v>97.346596560503315</v>
       </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>1602.649884067572</v>
+      </c>
       <c r="I8">
-        <f>D8/E8*$V$2</f>
-        <v>1602.649884067572</v>
+        <f t="shared" si="9"/>
+        <v>16.471688050861857</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>5.9069383589732398</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>9.7346596560503318E-2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="10"/>
+        <v>2.3095917624127367</v>
       </c>
       <c r="Y8">
         <v>1.1000000000000001</v>
@@ -973,83 +1278,122 @@
       <c r="Z8">
         <v>28.03</v>
       </c>
-      <c r="AC8">
+      <c r="AA8">
+        <f t="shared" si="5"/>
+        <v>0.79710144927536242</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="6"/>
+        <v>1.008273381294964</v>
+      </c>
+      <c r="AF8">
         <v>0.88</v>
       </c>
-      <c r="AD8">
+      <c r="AG8">
         <v>22.95</v>
       </c>
       <c r="AH8">
-        <f t="shared" si="2"/>
-        <v>5.4077777777777785</v>
+        <f t="shared" si="7"/>
+        <v>0.88888888888888895</v>
       </c>
       <c r="AI8">
-        <v>26.15</v>
-      </c>
-      <c r="AJ8">
+        <f t="shared" si="8"/>
+        <v>0.99782608695652175</v>
+      </c>
+      <c r="AQ8">
+        <f>AT8/AS8*3.14</f>
+        <v>5.7566666666666668</v>
+      </c>
+      <c r="AR8">
+        <v>27.6</v>
+      </c>
+      <c r="AS8">
         <v>18</v>
       </c>
-      <c r="AK8">
-        <v>31</v>
-      </c>
-      <c r="AO8">
-        <f t="shared" si="3"/>
+      <c r="AT8">
+        <v>33</v>
+      </c>
+      <c r="AX8">
+        <f t="shared" si="11"/>
         <v>5.4236363636363638</v>
       </c>
-      <c r="AP8">
+      <c r="AY8">
         <v>22.56</v>
       </c>
-      <c r="AQ8">
+      <c r="AZ8">
         <v>22</v>
       </c>
-      <c r="AR8">
+      <c r="BA8">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="Y9">
         <v>1.1499999999999999</v>
       </c>
       <c r="Z9">
         <v>27.9</v>
       </c>
-      <c r="AC9">
+      <c r="AA9">
+        <f t="shared" si="5"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="6"/>
+        <v>1.0035971223021583</v>
+      </c>
+      <c r="AF9">
         <v>0.9</v>
       </c>
-      <c r="AD9">
+      <c r="AG9">
         <v>22.97</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="2"/>
-        <v>5.5822222222222218</v>
+        <f t="shared" si="7"/>
+        <v>0.90909090909090917</v>
       </c>
       <c r="AI9">
-        <v>27.27</v>
-      </c>
-      <c r="AJ9">
+        <f t="shared" si="8"/>
+        <v>0.99869565217391298</v>
+      </c>
+      <c r="AQ9">
+        <f>AT9/AS9*3.14</f>
+        <v>6.28</v>
+      </c>
+      <c r="AR9">
+        <v>27.79</v>
+      </c>
+      <c r="AS9">
         <v>18</v>
       </c>
-      <c r="AK9">
-        <v>32</v>
-      </c>
-      <c r="AO9">
-        <f t="shared" si="3"/>
+      <c r="AT9">
+        <v>36</v>
+      </c>
+      <c r="AX9">
+        <f t="shared" si="11"/>
         <v>5.4236363636363638</v>
       </c>
-      <c r="AP9">
+      <c r="AY9">
         <v>22.62</v>
       </c>
-      <c r="AQ9">
+      <c r="AZ9">
         <v>22</v>
       </c>
-      <c r="AR9">
+      <c r="BA9">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="G10">
-        <f>AVERAGE(G2:G8)</f>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <f>AVERAGE(F2:F8)</f>
         <v>989.90486921741126</v>
+      </c>
+      <c r="L10">
+        <f>AVERAGE(L2:L8)</f>
+        <v>2.8109741659825014</v>
       </c>
       <c r="Y10">
         <v>1.1399999999999999</v>
@@ -1057,323 +1401,463 @@
       <c r="Z10">
         <v>27.8</v>
       </c>
-      <c r="AC10">
+      <c r="AA10">
+        <f t="shared" si="5"/>
+        <v>0.82608695652173914</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AF10">
         <v>0.97</v>
       </c>
-      <c r="AD10">
+      <c r="AG10">
         <v>23.32</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
+        <v>0.97979797979797978</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="8"/>
+        <v>1.0139130434782608</v>
+      </c>
+      <c r="AQ10">
+        <f>AT10/AS10*3.14</f>
         <v>6.28</v>
       </c>
-      <c r="AI10">
+      <c r="AR10">
         <v>27.89</v>
       </c>
-      <c r="AJ10">
+      <c r="AS10">
         <v>18</v>
       </c>
-      <c r="AK10">
+      <c r="AT10">
         <v>36</v>
       </c>
-      <c r="AO10">
-        <f t="shared" si="3"/>
+      <c r="AX10">
+        <f t="shared" si="11"/>
         <v>5.8518181818181816</v>
       </c>
-      <c r="AP10">
+      <c r="AY10">
         <v>23.08</v>
       </c>
-      <c r="AQ10">
+      <c r="AZ10">
         <v>22</v>
       </c>
-      <c r="AR10">
+      <c r="BA10">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11">
+        <f>SQRT(SUM(POWER(F2-F10,2),POWER(F3-F10,2),POWER(F4-F10,2),POWER(F5-F10,2),POWER(F6-F10,2),POWER(F7-F10,2),POWER(F8-F10,2))/6)</f>
+        <v>16.49081614995745</v>
+      </c>
+      <c r="L11">
+        <f>SQRT(SUM(POWER(L2-L10,2),POWER(L3-L10,2),POWER(L4-L10,2),POWER(L5-L10,2),POWER(L6-L10,2),POWER(L7-L10,2),POWER(L8-L10,2))/6)</f>
+        <v>0.61867330268333698</v>
+      </c>
       <c r="Y11">
         <v>1.0900000000000001</v>
       </c>
       <c r="Z11">
         <v>27.68</v>
       </c>
-      <c r="AC11">
+      <c r="AA11">
+        <f t="shared" si="5"/>
+        <v>0.78985507246376818</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="6"/>
+        <v>0.99568345323741003</v>
+      </c>
+      <c r="AF11">
         <v>0.86</v>
       </c>
-      <c r="AD11">
+      <c r="AG11">
         <v>23.48</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
+        <v>0.86868686868686873</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="8"/>
+        <v>1.0208695652173914</v>
+      </c>
+      <c r="AQ11">
+        <f>AT11/AS11*3.14</f>
         <v>6.4544444444444444</v>
       </c>
-      <c r="AI11">
+      <c r="AR11">
         <v>27.92</v>
       </c>
-      <c r="AJ11">
+      <c r="AS11">
         <v>18</v>
       </c>
-      <c r="AK11">
+      <c r="AT11">
         <v>37</v>
       </c>
-      <c r="AO11">
-        <f t="shared" si="3"/>
+      <c r="AX11">
+        <f t="shared" si="11"/>
         <v>5.9945454545454551</v>
       </c>
-      <c r="AP11">
+      <c r="AY11">
         <v>23.12</v>
       </c>
-      <c r="AQ11">
+      <c r="AZ11">
         <v>22</v>
       </c>
-      <c r="AR11">
+      <c r="BA11">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="Y12">
         <v>1.02</v>
       </c>
       <c r="Z12">
         <v>27.5</v>
       </c>
-      <c r="AC12">
+      <c r="AA12">
+        <f t="shared" si="5"/>
+        <v>0.73913043478260876</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="6"/>
+        <v>0.98920863309352514</v>
+      </c>
+      <c r="AF12">
         <v>0.82</v>
       </c>
-      <c r="AD12">
+      <c r="AG12">
         <v>23.54</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="2"/>
-        <v>6.1055555555555561</v>
+        <f t="shared" si="7"/>
+        <v>0.82828282828282829</v>
       </c>
       <c r="AI12">
-        <v>28.4</v>
-      </c>
-      <c r="AJ12">
+        <f t="shared" si="8"/>
+        <v>1.0234782608695652</v>
+      </c>
+      <c r="AQ12">
+        <f>AT12/AS12*3.14</f>
+        <v>0.52333333333333332</v>
+      </c>
+      <c r="AR12">
+        <v>28.15</v>
+      </c>
+      <c r="AS12">
         <v>18</v>
       </c>
-      <c r="AK12">
-        <v>35</v>
-      </c>
-      <c r="AO12">
-        <f t="shared" si="3"/>
+      <c r="AT12">
+        <v>3</v>
+      </c>
+      <c r="AX12">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AP12">
+      <c r="AY12">
         <v>23.22</v>
       </c>
-      <c r="AQ12">
+      <c r="AZ12">
         <v>22</v>
       </c>
-      <c r="AR12">
+      <c r="BA12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="Y13">
         <v>0.97</v>
       </c>
       <c r="Z13">
         <v>27.45</v>
       </c>
-      <c r="AC13">
+      <c r="AA13">
+        <f t="shared" si="5"/>
+        <v>0.70289855072463769</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="6"/>
+        <v>0.98741007194244601</v>
+      </c>
+      <c r="AF13">
         <v>0.81</v>
       </c>
-      <c r="AD13">
+      <c r="AG13">
         <v>23.56</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="2"/>
-        <v>1.0466666666666666</v>
+        <f t="shared" si="7"/>
+        <v>0.81818181818181823</v>
       </c>
       <c r="AI13">
-        <v>29.39</v>
-      </c>
-      <c r="AJ13">
+        <f t="shared" si="8"/>
+        <v>1.0243478260869565</v>
+      </c>
+      <c r="AQ13">
+        <f>AT13/AS13*3.14</f>
+        <v>0.69777777777777772</v>
+      </c>
+      <c r="AR13">
+        <v>28.26</v>
+      </c>
+      <c r="AS13">
         <v>18</v>
       </c>
-      <c r="AK13">
-        <v>6</v>
-      </c>
-      <c r="AO13">
-        <f t="shared" si="3"/>
+      <c r="AT13">
+        <v>4</v>
+      </c>
+      <c r="AX13">
+        <f t="shared" si="11"/>
         <v>0.28545454545454546</v>
       </c>
-      <c r="AP13">
+      <c r="AY13">
         <v>23.47</v>
       </c>
-      <c r="AQ13">
+      <c r="AZ13">
         <v>22</v>
       </c>
-      <c r="AR13">
+      <c r="BA13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="Y14">
         <v>0.93</v>
       </c>
       <c r="Z14">
         <v>27.4</v>
       </c>
-      <c r="AC14">
+      <c r="AA14">
+        <f t="shared" si="5"/>
+        <v>0.67391304347826098</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="6"/>
+        <v>0.98561151079136688</v>
+      </c>
+      <c r="AF14">
         <v>0.77</v>
       </c>
-      <c r="AD14">
+      <c r="AG14">
         <v>23.6</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="2"/>
-        <v>1.2211111111111113</v>
+        <f t="shared" si="7"/>
+        <v>0.77777777777777779</v>
       </c>
       <c r="AI14">
-        <v>29.04</v>
-      </c>
-      <c r="AJ14">
+        <f t="shared" si="8"/>
+        <v>1.0260869565217392</v>
+      </c>
+      <c r="AQ14">
+        <f>AT14/AS14*3.14</f>
+        <v>6.1055555555555561</v>
+      </c>
+      <c r="AR14">
+        <v>28.4</v>
+      </c>
+      <c r="AS14">
         <v>18</v>
       </c>
-      <c r="AK14">
-        <v>7</v>
-      </c>
-      <c r="AO14">
-        <f t="shared" si="3"/>
+      <c r="AT14">
+        <v>35</v>
+      </c>
+      <c r="AX14">
+        <f t="shared" si="11"/>
         <v>0.57090909090909092</v>
       </c>
-      <c r="AP14">
+      <c r="AY14">
         <v>23.53</v>
       </c>
-      <c r="AQ14">
+      <c r="AZ14">
         <v>22</v>
       </c>
-      <c r="AR14">
+      <c r="BA14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="Y15">
         <v>0.9</v>
       </c>
       <c r="Z15">
         <v>27.36</v>
       </c>
-      <c r="AC15">
+      <c r="AA15">
+        <f t="shared" si="5"/>
+        <v>0.65217391304347838</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="6"/>
+        <v>0.98417266187050356</v>
+      </c>
+      <c r="AF15">
         <v>0.66</v>
       </c>
-      <c r="AD15">
+      <c r="AG15">
         <v>23.76</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="8"/>
+        <v>1.0330434782608697</v>
+      </c>
+      <c r="AQ15">
+        <f>AT15/AS15*3.14</f>
         <v>1.0466666666666666</v>
       </c>
-      <c r="AI15">
+      <c r="AR15">
         <v>28.78</v>
       </c>
-      <c r="AJ15">
+      <c r="AS15">
         <v>18</v>
       </c>
-      <c r="AK15">
+      <c r="AT15">
         <v>6</v>
       </c>
-      <c r="AO15">
-        <f t="shared" si="3"/>
+      <c r="AX15">
+        <f t="shared" si="11"/>
         <v>0.85636363636363633</v>
       </c>
-      <c r="AP15">
+      <c r="AY15">
         <v>23.78</v>
       </c>
-      <c r="AQ15">
+      <c r="AZ15">
         <v>22</v>
       </c>
-      <c r="AR15">
+      <c r="BA15">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
       <c r="Y16">
         <v>0.85</v>
       </c>
       <c r="Z16">
         <v>27.29</v>
       </c>
-      <c r="AC16">
+      <c r="AA16">
+        <f t="shared" si="5"/>
+        <v>0.61594202898550732</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="6"/>
+        <v>0.98165467625899272</v>
+      </c>
+      <c r="AF16">
         <v>0.65</v>
       </c>
-      <c r="AD16">
+      <c r="AG16">
         <v>23.79</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="2"/>
-        <v>0.52333333333333332</v>
+        <f t="shared" si="7"/>
+        <v>0.65656565656565657</v>
       </c>
       <c r="AI16">
-        <v>28.15</v>
-      </c>
-      <c r="AJ16">
+        <f t="shared" si="8"/>
+        <v>1.0343478260869565</v>
+      </c>
+      <c r="AQ16">
+        <f>AT16/AS16*3.14</f>
+        <v>1.2211111111111113</v>
+      </c>
+      <c r="AR16">
+        <v>29.04</v>
+      </c>
+      <c r="AS16">
         <v>18</v>
       </c>
-      <c r="AK16">
-        <v>3</v>
-      </c>
-      <c r="AO16">
-        <f t="shared" si="3"/>
+      <c r="AT16">
+        <v>7</v>
+      </c>
+      <c r="AX16">
+        <f t="shared" si="11"/>
         <v>0.71363636363636362</v>
       </c>
-      <c r="AP16">
+      <c r="AY16">
         <v>23.64</v>
       </c>
-      <c r="AQ16">
+      <c r="AZ16">
         <v>22</v>
       </c>
-      <c r="AR16">
+      <c r="BA16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="25:44" x14ac:dyDescent="0.3">
+    <row r="17" spans="25:53" x14ac:dyDescent="0.3">
       <c r="Y17">
         <v>0.82</v>
       </c>
       <c r="Z17">
         <v>27.26</v>
       </c>
-      <c r="AC17">
+      <c r="AA17">
+        <f t="shared" si="5"/>
+        <v>0.59420289855072461</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="6"/>
+        <v>0.98057553956834531</v>
+      </c>
+      <c r="AF17">
         <v>0.61</v>
       </c>
-      <c r="AD17">
+      <c r="AG17">
         <v>23.84</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="2"/>
-        <v>0.69777777777777772</v>
+        <f t="shared" si="7"/>
+        <v>0.61616161616161613</v>
       </c>
       <c r="AI17">
-        <v>28.26</v>
-      </c>
-      <c r="AJ17">
+        <f t="shared" si="8"/>
+        <v>1.0365217391304349</v>
+      </c>
+      <c r="AQ17">
+        <f>AT17/AS17*3.14</f>
+        <v>1.0466666666666666</v>
+      </c>
+      <c r="AR17">
+        <v>29.39</v>
+      </c>
+      <c r="AS17">
         <v>18</v>
       </c>
-      <c r="AK17">
-        <v>4</v>
-      </c>
-      <c r="AO17">
-        <f t="shared" si="3"/>
+      <c r="AT17">
+        <v>6</v>
+      </c>
+      <c r="AX17">
+        <f t="shared" si="11"/>
         <v>0.99909090909090914</v>
       </c>
-      <c r="AP17">
+      <c r="AY17">
         <v>24.2</v>
       </c>
-      <c r="AQ17">
+      <c r="AZ17">
         <v>22</v>
       </c>
-      <c r="AR17">
+      <c r="BA17">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="AB2:AD17">
-    <sortCondition ref="AD1"/>
+  <sortState ref="AP2:AT17">
+    <sortCondition ref="AR2"/>
   </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1384,7 +1868,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1396,7 +1880,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3.2.3/3.2.3.xlsx
+++ b/3.2.3/3.2.3.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>f_0n, kHz</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>df</t>
+  </si>
+  <si>
+    <t>psi отн</t>
+  </si>
+  <si>
+    <t>1/Q</t>
   </si>
 </sst>
 </file>
@@ -459,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA17"/>
+  <dimension ref="A1:BF17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR15" sqref="AR15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,7 +479,7 @@
     <col min="11" max="11" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -570,23 +576,35 @@
       <c r="AT1" t="s">
         <v>15</v>
       </c>
-      <c r="AW1">
+      <c r="AU1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AZ1">
         <v>3</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BA1" t="s">
         <v>13</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BB1" t="s">
         <v>8</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BC1" t="s">
         <v>14</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BD1" t="s">
         <v>15</v>
       </c>
+      <c r="BE1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -675,8 +693,12 @@
         <f>AG2/$C$4</f>
         <v>0.981304347826087</v>
       </c>
+      <c r="AP2">
+        <f t="shared" ref="AP2:AP8" si="3">AQ2-6.28</f>
+        <v>-0.87222222222222179</v>
+      </c>
       <c r="AQ2">
-        <f>AT2/AS2*3.14</f>
+        <f t="shared" ref="AQ2:AQ17" si="4">AT2/AS2*3.14</f>
         <v>5.4077777777777785</v>
       </c>
       <c r="AR2">
@@ -688,21 +710,41 @@
       <c r="AT2">
         <v>31</v>
       </c>
-      <c r="AX2">
-        <f>BA2/AZ2*3.14</f>
+      <c r="AU2">
+        <f>AR2/$C$3</f>
+        <v>0.94064748201438841</v>
+      </c>
+      <c r="AV2">
+        <f>AP2/3.14</f>
+        <v>-0.27777777777777762</v>
+      </c>
+      <c r="AZ2">
+        <f t="shared" ref="AZ2:AZ3" si="5">BA2-6.28</f>
+        <v>-1.1418181818181816</v>
+      </c>
+      <c r="BA2">
+        <f>BD2/BC2*3.14</f>
         <v>5.1381818181818186</v>
       </c>
-      <c r="AY2">
+      <c r="BB2">
         <v>22.04</v>
       </c>
-      <c r="AZ2">
+      <c r="BC2">
         <v>22</v>
       </c>
-      <c r="BA2">
+      <c r="BD2">
         <v>36</v>
       </c>
+      <c r="BE2">
+        <f>BB2/$C$4</f>
+        <v>0.95826086956521739</v>
+      </c>
+      <c r="BF2">
+        <f>AZ2/3.14</f>
+        <v>-0.36363636363636354</v>
+      </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -735,11 +777,11 @@
         <v>26.711324510955876</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J8" si="3">E3/D3/$V$2/POWER((2*PI()*C3*1000*B3/1000000000),2)</f>
+        <f t="shared" ref="J3:J8" si="6">E3/D3/$V$2/POWER((2*PI()*C3*1000*B3/1000000000),2)</f>
         <v>6.4556775276029539</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K8" si="4">1/1000*G3</f>
+        <f t="shared" ref="K3:K8" si="7">1/1000*G3</f>
         <v>0.17252716129605714</v>
       </c>
       <c r="L3">
@@ -771,11 +813,11 @@
         <v>28.32</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA17" si="5">Y3/$D$3</f>
+        <f t="shared" ref="AA3:AA17" si="8">Y3/$D$3</f>
         <v>0.65217391304347838</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB17" si="6">Z3/$C$3</f>
+        <f t="shared" ref="AB3:AB17" si="9">Z3/$C$3</f>
         <v>1.0187050359712231</v>
       </c>
       <c r="AF3">
@@ -785,15 +827,19 @@
         <v>22.68</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH17" si="7">AF3/$D$4</f>
+        <f t="shared" ref="AH3:AH17" si="10">AF3/$D$4</f>
         <v>0.6767676767676768</v>
       </c>
       <c r="AI3">
-        <f t="shared" ref="AI3:AI17" si="8">AG3/$C$4</f>
+        <f t="shared" ref="AI3:AI17" si="11">AG3/$C$4</f>
         <v>0.98608695652173917</v>
       </c>
+      <c r="AP3">
+        <f t="shared" si="3"/>
+        <v>-1.0466666666666669</v>
+      </c>
       <c r="AQ3">
-        <f>AT3/AS3*3.14</f>
+        <f t="shared" si="4"/>
         <v>5.2333333333333334</v>
       </c>
       <c r="AR3">
@@ -805,21 +851,41 @@
       <c r="AT3">
         <v>30</v>
       </c>
-      <c r="AX3">
-        <f>BA3/AZ3*3.14</f>
+      <c r="AU3">
+        <f t="shared" ref="AU3:AU17" si="12">AR3/$C$3</f>
+        <v>0.94712230215827331</v>
+      </c>
+      <c r="AV3">
+        <f t="shared" ref="AV3:AV8" si="13">AP3/3.14</f>
+        <v>-0.33333333333333337</v>
+      </c>
+      <c r="AZ3">
+        <f t="shared" si="5"/>
+        <v>-0.99909090909090903</v>
+      </c>
+      <c r="BA3">
+        <f>BD3/BC3*3.14</f>
         <v>5.2809090909090912</v>
       </c>
-      <c r="AY3">
+      <c r="BB3">
         <v>22.48</v>
       </c>
-      <c r="AZ3">
+      <c r="BC3">
         <v>22</v>
       </c>
-      <c r="BA3">
+      <c r="BD3">
         <v>37</v>
       </c>
+      <c r="BE3">
+        <f t="shared" ref="BE3:BE17" si="14">BB3/$C$4</f>
+        <v>0.97739130434782606</v>
+      </c>
+      <c r="BF3">
+        <f>AZ3/3.14</f>
+        <v>-0.31818181818181818</v>
+      </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -848,19 +914,19 @@
         <v>3303.2770605759683</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I8" si="9">D4*$V$2/E4*2*PI()*C4*1000*B4/1000000000</f>
+        <f t="shared" ref="I4:I8" si="15">D4*$V$2/E4*2*PI()*C4*1000*B4/1000000000</f>
         <v>22.579475348909817</v>
       </c>
       <c r="J4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.4791391666609286</v>
       </c>
       <c r="K4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.14636976632945028</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L8" si="10">J4-$U$2-K4</f>
+        <f t="shared" ref="L4:L8" si="16">J4-$U$2-K4</f>
         <v>2.8327694003314785</v>
       </c>
       <c r="R4">
@@ -877,11 +943,11 @@
         <v>28.25</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.68840579710144933</v>
       </c>
       <c r="AB4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0161870503597121</v>
       </c>
       <c r="AF4">
@@ -891,15 +957,19 @@
         <v>22.77</v>
       </c>
       <c r="AH4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.74747474747474751</v>
       </c>
       <c r="AI4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.99</v>
       </c>
+      <c r="AP4">
+        <f t="shared" si="3"/>
+        <v>-1.0466666666666669</v>
+      </c>
       <c r="AQ4">
-        <f>AT4/AS4*3.14</f>
+        <f t="shared" si="4"/>
         <v>5.2333333333333334</v>
       </c>
       <c r="AR4">
@@ -911,21 +981,37 @@
       <c r="AT4">
         <v>30</v>
       </c>
-      <c r="AX4">
-        <f>BA4/AZ4*3.14</f>
+      <c r="AU4">
+        <f t="shared" si="12"/>
+        <v>0.95035971223021587</v>
+      </c>
+      <c r="AV4">
+        <f t="shared" si="13"/>
+        <v>-0.33333333333333337</v>
+      </c>
+      <c r="BA4">
+        <f>BD4/BC4*3.14</f>
         <v>0.14272727272727273</v>
       </c>
-      <c r="AY4">
+      <c r="BB4">
         <v>23.36</v>
       </c>
-      <c r="AZ4">
+      <c r="BC4">
         <v>22</v>
       </c>
-      <c r="BA4">
+      <c r="BD4">
         <v>1</v>
       </c>
+      <c r="BE4">
+        <f t="shared" si="14"/>
+        <v>1.0156521739130435</v>
+      </c>
+      <c r="BF4">
+        <f t="shared" ref="BF3:BF17" si="17">BA4/3.14</f>
+        <v>4.5454545454545456E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -954,19 +1040,19 @@
         <v>2836.1469712015892</v>
       </c>
       <c r="I5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>21.480272573830504</v>
       </c>
       <c r="J5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.1468010455085631</v>
       </c>
       <c r="K5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.13210193196433459</v>
       </c>
       <c r="L5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2.5146991135442285</v>
       </c>
       <c r="V5" t="s">
@@ -979,11 +1065,11 @@
         <v>28.18</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.7246376811594204</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0136690647482014</v>
       </c>
       <c r="AF5">
@@ -993,15 +1079,19 @@
         <v>22.81</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.77777777777777779</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.99173913043478257</v>
       </c>
+      <c r="AP5">
+        <f t="shared" si="3"/>
+        <v>-0.87222222222222179</v>
+      </c>
       <c r="AQ5">
-        <f>AT5/AS5*3.14</f>
+        <f t="shared" si="4"/>
         <v>5.4077777777777785</v>
       </c>
       <c r="AR5">
@@ -1013,21 +1103,41 @@
       <c r="AT5">
         <v>31</v>
       </c>
-      <c r="AX5">
-        <f t="shared" ref="AX5:AX17" si="11">BA5/AZ5*3.14</f>
+      <c r="AU5">
+        <f t="shared" si="12"/>
+        <v>0.97482014388489213</v>
+      </c>
+      <c r="AV5">
+        <f t="shared" si="13"/>
+        <v>-0.27777777777777762</v>
+      </c>
+      <c r="AZ5">
+        <f t="shared" ref="AZ5:AZ11" si="18">BA5-6.28</f>
+        <v>-0.85636363636363644</v>
+      </c>
+      <c r="BA5">
+        <f t="shared" ref="BA5:BA17" si="19">BD5/BC5*3.14</f>
         <v>5.4236363636363638</v>
       </c>
-      <c r="AY5">
+      <c r="BB5">
         <v>22.72</v>
       </c>
-      <c r="AZ5">
+      <c r="BC5">
         <v>22</v>
       </c>
-      <c r="BA5">
+      <c r="BD5">
         <v>38</v>
       </c>
+      <c r="BE5">
+        <f t="shared" si="14"/>
+        <v>0.98782608695652174</v>
+      </c>
+      <c r="BF5">
+        <f>AZ5/3.14</f>
+        <v>-0.27272727272727276</v>
+      </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1056,19 +1166,19 @@
         <v>2336.4238410596026</v>
       </c>
       <c r="I6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>19.223700881856875</v>
       </c>
       <c r="J6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.3223368142871044</v>
       </c>
       <c r="K6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.12160035799145393</v>
       </c>
       <c r="L6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2.7007364562956506</v>
       </c>
       <c r="V6" t="s">
@@ -1081,11 +1191,11 @@
         <v>28.09</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.76811594202898559</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0104316546762591</v>
       </c>
       <c r="AF6">
@@ -1095,15 +1205,19 @@
         <v>22.88</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.83838383838383834</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.99478260869565216</v>
       </c>
+      <c r="AP6">
+        <f t="shared" si="3"/>
+        <v>-0.6977777777777785</v>
+      </c>
       <c r="AQ6">
-        <f>AT6/AS6*3.14</f>
+        <f t="shared" si="4"/>
         <v>5.5822222222222218</v>
       </c>
       <c r="AR6">
@@ -1115,21 +1229,41 @@
       <c r="AT6">
         <v>32</v>
       </c>
-      <c r="AX6">
-        <f t="shared" si="11"/>
+      <c r="AU6">
+        <f t="shared" si="12"/>
+        <v>0.98093525179856111</v>
+      </c>
+      <c r="AV6">
+        <f t="shared" si="13"/>
+        <v>-0.22222222222222243</v>
+      </c>
+      <c r="AZ6">
+        <f t="shared" si="18"/>
+        <v>-0.71363636363636385</v>
+      </c>
+      <c r="BA6">
+        <f t="shared" si="19"/>
         <v>5.5663636363636364</v>
       </c>
-      <c r="AY6">
+      <c r="BB6">
         <v>22.84</v>
       </c>
-      <c r="AZ6">
+      <c r="BC6">
         <v>22</v>
       </c>
-      <c r="BA6">
+      <c r="BD6">
         <v>39</v>
       </c>
+      <c r="BE6">
+        <f t="shared" si="14"/>
+        <v>0.99304347826086958</v>
+      </c>
+      <c r="BF6">
+        <f>AZ6/3.14</f>
+        <v>-0.22727272727272732</v>
+      </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1158,19 +1292,19 @@
         <v>1969.2715231788079</v>
       </c>
       <c r="I7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>18.111909733457082</v>
       </c>
       <c r="J7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.00312118657612</v>
       </c>
       <c r="K7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.10878313746494302</v>
       </c>
       <c r="L7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2.3943380491111772</v>
       </c>
       <c r="Y7">
@@ -1180,11 +1314,11 @@
         <v>28.05</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.78260869565217406</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0089928057553956</v>
       </c>
       <c r="AF7">
@@ -1194,15 +1328,19 @@
         <v>22.91</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.85858585858585856</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.99608695652173918</v>
       </c>
+      <c r="AP7">
+        <f t="shared" si="3"/>
+        <v>-0.34888888888888925</v>
+      </c>
       <c r="AQ7">
-        <f>AT7/AS7*3.14</f>
+        <f t="shared" si="4"/>
         <v>5.931111111111111</v>
       </c>
       <c r="AR7">
@@ -1214,21 +1352,41 @@
       <c r="AT7">
         <v>34</v>
       </c>
-      <c r="AX7">
-        <f t="shared" si="11"/>
+      <c r="AU7">
+        <f t="shared" si="12"/>
+        <v>0.99136690647482006</v>
+      </c>
+      <c r="AV7">
+        <f t="shared" si="13"/>
+        <v>-0.11111111111111122</v>
+      </c>
+      <c r="AZ7">
+        <f t="shared" si="18"/>
+        <v>-0.99909090909090903</v>
+      </c>
+      <c r="BA7">
+        <f t="shared" si="19"/>
         <v>5.2809090909090912</v>
       </c>
-      <c r="AY7">
+      <c r="BB7">
         <v>22.13</v>
       </c>
-      <c r="AZ7">
+      <c r="BC7">
         <v>22</v>
       </c>
-      <c r="BA7">
+      <c r="BD7">
         <v>37</v>
       </c>
+      <c r="BE7">
+        <f t="shared" si="14"/>
+        <v>0.96217391304347821</v>
+      </c>
+      <c r="BF7">
+        <f>AZ7/3.14</f>
+        <v>-0.31818181818181818</v>
+      </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1257,20 +1415,26 @@
         <v>1602.649884067572</v>
       </c>
       <c r="I8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>16.471688050861857</v>
       </c>
       <c r="J8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.9069383589732398</v>
       </c>
       <c r="K8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.7346596560503318E-2</v>
       </c>
       <c r="L8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2.3095917624127367</v>
+      </c>
+      <c r="O8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" t="s">
+        <v>19</v>
       </c>
       <c r="Y8">
         <v>1.1000000000000001</v>
@@ -1279,11 +1443,11 @@
         <v>28.03</v>
       </c>
       <c r="AA8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.79710144927536242</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.008273381294964</v>
       </c>
       <c r="AF8">
@@ -1293,15 +1457,19 @@
         <v>22.95</v>
       </c>
       <c r="AH8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.88888888888888895</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.99782608695652175</v>
       </c>
+      <c r="AP8">
+        <f t="shared" si="3"/>
+        <v>-0.52333333333333343</v>
+      </c>
       <c r="AQ8">
-        <f>AT8/AS8*3.14</f>
+        <f t="shared" si="4"/>
         <v>5.7566666666666668</v>
       </c>
       <c r="AR8">
@@ -1313,21 +1481,52 @@
       <c r="AT8">
         <v>33</v>
       </c>
-      <c r="AX8">
-        <f t="shared" si="11"/>
+      <c r="AU8">
+        <f t="shared" si="12"/>
+        <v>0.9928057553956835</v>
+      </c>
+      <c r="AV8">
+        <f t="shared" si="13"/>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="AZ8">
+        <f t="shared" si="18"/>
+        <v>-0.85636363636363644</v>
+      </c>
+      <c r="BA8">
+        <f t="shared" si="19"/>
         <v>5.4236363636363638</v>
       </c>
-      <c r="AY8">
+      <c r="BB8">
         <v>22.56</v>
       </c>
-      <c r="AZ8">
+      <c r="BC8">
         <v>22</v>
       </c>
-      <c r="BA8">
+      <c r="BD8">
         <v>38</v>
       </c>
+      <c r="BE8">
+        <f t="shared" si="14"/>
+        <v>0.98086956521739121</v>
+      </c>
+      <c r="BF8">
+        <f>AZ8/3.14</f>
+        <v>-0.27272727272727276</v>
+      </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <f>1.02-0.98</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="P9">
+        <f>1/O9</f>
+        <v>24.999999999999979</v>
+      </c>
       <c r="Y9">
         <v>1.1499999999999999</v>
       </c>
@@ -1335,11 +1534,11 @@
         <v>27.9</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0035971223021583</v>
       </c>
       <c r="AF9">
@@ -1349,16 +1548,15 @@
         <v>22.97</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.90909090909090917</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.99869565217391298</v>
       </c>
       <c r="AQ9">
-        <f>AT9/AS9*3.14</f>
-        <v>6.28</v>
+        <v>0</v>
       </c>
       <c r="AR9">
         <v>27.79</v>
@@ -1369,21 +1567,41 @@
       <c r="AT9">
         <v>36</v>
       </c>
-      <c r="AX9">
-        <f t="shared" si="11"/>
+      <c r="AU9">
+        <f t="shared" si="12"/>
+        <v>0.99964028776978409</v>
+      </c>
+      <c r="AV9">
+        <f t="shared" ref="AV3:AV17" si="20">AQ9/3.14</f>
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <f t="shared" si="18"/>
+        <v>-0.85636363636363644</v>
+      </c>
+      <c r="BA9">
+        <f t="shared" si="19"/>
         <v>5.4236363636363638</v>
       </c>
-      <c r="AY9">
+      <c r="BB9">
         <v>22.62</v>
       </c>
-      <c r="AZ9">
+      <c r="BC9">
         <v>22</v>
       </c>
-      <c r="BA9">
+      <c r="BD9">
         <v>38</v>
       </c>
+      <c r="BE9">
+        <f t="shared" si="14"/>
+        <v>0.98347826086956525</v>
+      </c>
+      <c r="BF9">
+        <f>AZ9/3.14</f>
+        <v>-0.27272727272727276</v>
+      </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1395,6 +1613,17 @@
         <f>AVERAGE(L2:L8)</f>
         <v>2.8109741659825014</v>
       </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <f>1.03-0.99</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="P10">
+        <f>1/O10</f>
+        <v>24.999999999999979</v>
+      </c>
       <c r="Y10">
         <v>1.1399999999999999</v>
       </c>
@@ -1402,11 +1631,11 @@
         <v>27.8</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.82608695652173914</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AF10">
@@ -1416,16 +1645,15 @@
         <v>23.32</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.97979797979797978</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0139130434782608</v>
       </c>
       <c r="AQ10">
-        <f>AT10/AS10*3.14</f>
-        <v>6.28</v>
+        <v>0</v>
       </c>
       <c r="AR10">
         <v>27.89</v>
@@ -1436,21 +1664,41 @@
       <c r="AT10">
         <v>36</v>
       </c>
-      <c r="AX10">
-        <f t="shared" si="11"/>
+      <c r="AU10">
+        <f t="shared" si="12"/>
+        <v>1.0032374100719423</v>
+      </c>
+      <c r="AV10">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <f t="shared" si="18"/>
+        <v>-0.42818181818181866</v>
+      </c>
+      <c r="BA10">
+        <f t="shared" si="19"/>
         <v>5.8518181818181816</v>
       </c>
-      <c r="AY10">
+      <c r="BB10">
         <v>23.08</v>
       </c>
-      <c r="AZ10">
+      <c r="BC10">
         <v>22</v>
       </c>
-      <c r="BA10">
+      <c r="BD10">
         <v>41</v>
       </c>
+      <c r="BE10">
+        <f t="shared" si="14"/>
+        <v>1.0034782608695652</v>
+      </c>
+      <c r="BF10">
+        <f>AZ10/3.14</f>
+        <v>-0.13636363636363652</v>
+      </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1469,11 +1717,11 @@
         <v>27.68</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.78985507246376818</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.99568345323741003</v>
       </c>
       <c r="AF11">
@@ -1483,15 +1731,19 @@
         <v>23.48</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.86868686868686873</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0208695652173914</v>
       </c>
+      <c r="AP11">
+        <f>AQ11-6.28</f>
+        <v>0.17444444444444418</v>
+      </c>
       <c r="AQ11">
-        <f>AT11/AS11*3.14</f>
+        <f t="shared" si="4"/>
         <v>6.4544444444444444</v>
       </c>
       <c r="AR11">
@@ -1503,21 +1755,41 @@
       <c r="AT11">
         <v>37</v>
       </c>
-      <c r="AX11">
-        <f t="shared" si="11"/>
+      <c r="AU11">
+        <f t="shared" si="12"/>
+        <v>1.0043165467625899</v>
+      </c>
+      <c r="AV11">
+        <f>AP11/3.14</f>
+        <v>5.5555555555555469E-2</v>
+      </c>
+      <c r="AZ11">
+        <f t="shared" si="18"/>
+        <v>-0.28545454545454518</v>
+      </c>
+      <c r="BA11">
+        <f t="shared" si="19"/>
         <v>5.9945454545454551</v>
       </c>
-      <c r="AY11">
+      <c r="BB11">
         <v>23.12</v>
       </c>
-      <c r="AZ11">
+      <c r="BC11">
         <v>22</v>
       </c>
-      <c r="BA11">
+      <c r="BD11">
         <v>42</v>
       </c>
+      <c r="BE11">
+        <f t="shared" si="14"/>
+        <v>1.0052173913043478</v>
+      </c>
+      <c r="BF11">
+        <f>AZ11/3.14</f>
+        <v>-9.0909090909090814E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.3">
       <c r="Y12">
         <v>1.02</v>
       </c>
@@ -1525,11 +1797,11 @@
         <v>27.5</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.73913043478260876</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.98920863309352514</v>
       </c>
       <c r="AF12">
@@ -1539,15 +1811,15 @@
         <v>23.54</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.82828282828282829</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0234782608695652</v>
       </c>
       <c r="AQ12">
-        <f>AT12/AS12*3.14</f>
+        <f t="shared" si="4"/>
         <v>0.52333333333333332</v>
       </c>
       <c r="AR12">
@@ -1559,21 +1831,37 @@
       <c r="AT12">
         <v>3</v>
       </c>
-      <c r="AX12">
-        <f t="shared" si="11"/>
+      <c r="AU12">
+        <f t="shared" si="12"/>
+        <v>1.0125899280575539</v>
+      </c>
+      <c r="AV12">
+        <f t="shared" si="20"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="BA12">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AY12">
+      <c r="BB12">
         <v>23.22</v>
       </c>
-      <c r="AZ12">
+      <c r="BC12">
         <v>22</v>
       </c>
-      <c r="BA12">
+      <c r="BD12">
         <v>0</v>
       </c>
+      <c r="BE12">
+        <f t="shared" si="14"/>
+        <v>1.0095652173913043</v>
+      </c>
+      <c r="BF12">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.3">
       <c r="Y13">
         <v>0.97</v>
       </c>
@@ -1581,11 +1869,11 @@
         <v>27.45</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.70289855072463769</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.98741007194244601</v>
       </c>
       <c r="AF13">
@@ -1595,15 +1883,15 @@
         <v>23.56</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.81818181818181823</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0243478260869565</v>
       </c>
       <c r="AQ13">
-        <f>AT13/AS13*3.14</f>
+        <f t="shared" si="4"/>
         <v>0.69777777777777772</v>
       </c>
       <c r="AR13">
@@ -1615,21 +1903,37 @@
       <c r="AT13">
         <v>4</v>
       </c>
-      <c r="AX13">
-        <f t="shared" si="11"/>
+      <c r="AU13">
+        <f t="shared" si="12"/>
+        <v>1.016546762589928</v>
+      </c>
+      <c r="AV13">
+        <f t="shared" si="20"/>
+        <v>0.22222222222222218</v>
+      </c>
+      <c r="BA13">
+        <f t="shared" si="19"/>
         <v>0.28545454545454546</v>
       </c>
-      <c r="AY13">
+      <c r="BB13">
         <v>23.47</v>
       </c>
-      <c r="AZ13">
+      <c r="BC13">
         <v>22</v>
       </c>
-      <c r="BA13">
+      <c r="BD13">
         <v>2</v>
       </c>
+      <c r="BE13">
+        <f t="shared" si="14"/>
+        <v>1.0204347826086957</v>
+      </c>
+      <c r="BF13">
+        <f t="shared" si="17"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.3">
       <c r="Y14">
         <v>0.93</v>
       </c>
@@ -1637,11 +1941,11 @@
         <v>27.4</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.67391304347826098</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.98561151079136688</v>
       </c>
       <c r="AF14">
@@ -1651,15 +1955,19 @@
         <v>23.6</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.77777777777777779</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0260869565217392</v>
       </c>
+      <c r="AP14">
+        <f>AQ14-6.28</f>
+        <v>-0.17444444444444418</v>
+      </c>
       <c r="AQ14">
-        <f>AT14/AS14*3.14</f>
+        <f t="shared" si="4"/>
         <v>6.1055555555555561</v>
       </c>
       <c r="AR14">
@@ -1671,21 +1979,37 @@
       <c r="AT14">
         <v>35</v>
       </c>
-      <c r="AX14">
-        <f t="shared" si="11"/>
+      <c r="AU14">
+        <f t="shared" si="12"/>
+        <v>1.0215827338129495</v>
+      </c>
+      <c r="AV14">
+        <f>AP14/3.14</f>
+        <v>-5.5555555555555469E-2</v>
+      </c>
+      <c r="BA14">
+        <f t="shared" si="19"/>
         <v>0.57090909090909092</v>
       </c>
-      <c r="AY14">
+      <c r="BB14">
         <v>23.53</v>
       </c>
-      <c r="AZ14">
+      <c r="BC14">
         <v>22</v>
       </c>
-      <c r="BA14">
+      <c r="BD14">
         <v>4</v>
       </c>
+      <c r="BE14">
+        <f t="shared" si="14"/>
+        <v>1.0230434782608697</v>
+      </c>
+      <c r="BF14">
+        <f t="shared" si="17"/>
+        <v>0.18181818181818182</v>
+      </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.3">
       <c r="Y15">
         <v>0.9</v>
       </c>
@@ -1693,11 +2017,11 @@
         <v>27.36</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.65217391304347838</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.98417266187050356</v>
       </c>
       <c r="AF15">
@@ -1707,15 +2031,15 @@
         <v>23.76</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.66666666666666674</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0330434782608697</v>
       </c>
       <c r="AQ15">
-        <f>AT15/AS15*3.14</f>
+        <f t="shared" si="4"/>
         <v>1.0466666666666666</v>
       </c>
       <c r="AR15">
@@ -1727,21 +2051,37 @@
       <c r="AT15">
         <v>6</v>
       </c>
-      <c r="AX15">
-        <f t="shared" si="11"/>
+      <c r="AU15">
+        <f t="shared" si="12"/>
+        <v>1.0352517985611511</v>
+      </c>
+      <c r="AV15">
+        <f t="shared" si="20"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="BA15">
+        <f t="shared" si="19"/>
         <v>0.85636363636363633</v>
       </c>
-      <c r="AY15">
+      <c r="BB15">
         <v>23.78</v>
       </c>
-      <c r="AZ15">
+      <c r="BC15">
         <v>22</v>
       </c>
-      <c r="BA15">
+      <c r="BD15">
         <v>6</v>
       </c>
+      <c r="BE15">
+        <f t="shared" si="14"/>
+        <v>1.0339130434782609</v>
+      </c>
+      <c r="BF15">
+        <f t="shared" si="17"/>
+        <v>0.27272727272727271</v>
+      </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.3">
       <c r="Y16">
         <v>0.85</v>
       </c>
@@ -1749,11 +2089,11 @@
         <v>27.29</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.61594202898550732</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.98165467625899272</v>
       </c>
       <c r="AF16">
@@ -1763,15 +2103,15 @@
         <v>23.79</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.65656565656565657</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0343478260869565</v>
       </c>
       <c r="AQ16">
-        <f>AT16/AS16*3.14</f>
+        <f t="shared" si="4"/>
         <v>1.2211111111111113</v>
       </c>
       <c r="AR16">
@@ -1783,21 +2123,37 @@
       <c r="AT16">
         <v>7</v>
       </c>
-      <c r="AX16">
-        <f t="shared" si="11"/>
+      <c r="AU16">
+        <f t="shared" si="12"/>
+        <v>1.0446043165467624</v>
+      </c>
+      <c r="AV16">
+        <f t="shared" si="20"/>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="BA16">
+        <f t="shared" si="19"/>
         <v>0.71363636363636362</v>
       </c>
-      <c r="AY16">
+      <c r="BB16">
         <v>23.64</v>
       </c>
-      <c r="AZ16">
+      <c r="BC16">
         <v>22</v>
       </c>
-      <c r="BA16">
+      <c r="BD16">
         <v>5</v>
       </c>
+      <c r="BE16">
+        <f t="shared" si="14"/>
+        <v>1.0278260869565217</v>
+      </c>
+      <c r="BF16">
+        <f t="shared" si="17"/>
+        <v>0.22727272727272727</v>
+      </c>
     </row>
-    <row r="17" spans="25:53" x14ac:dyDescent="0.3">
+    <row r="17" spans="25:58" x14ac:dyDescent="0.3">
       <c r="Y17">
         <v>0.82</v>
       </c>
@@ -1805,11 +2161,11 @@
         <v>27.26</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.59420289855072461</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.98057553956834531</v>
       </c>
       <c r="AF17">
@@ -1819,15 +2175,15 @@
         <v>23.84</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.61616161616161613</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0365217391304349</v>
       </c>
       <c r="AQ17">
-        <f>AT17/AS17*3.14</f>
+        <f t="shared" si="4"/>
         <v>1.0466666666666666</v>
       </c>
       <c r="AR17">
@@ -1839,18 +2195,34 @@
       <c r="AT17">
         <v>6</v>
       </c>
-      <c r="AX17">
-        <f t="shared" si="11"/>
+      <c r="AU17">
+        <f t="shared" si="12"/>
+        <v>1.0571942446043165</v>
+      </c>
+      <c r="AV17">
+        <f t="shared" si="20"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="BA17">
+        <f t="shared" si="19"/>
         <v>0.99909090909090914</v>
       </c>
-      <c r="AY17">
+      <c r="BB17">
         <v>24.2</v>
       </c>
-      <c r="AZ17">
+      <c r="BC17">
         <v>22</v>
       </c>
-      <c r="BA17">
+      <c r="BD17">
         <v>7</v>
+      </c>
+      <c r="BE17">
+        <f t="shared" si="14"/>
+        <v>1.0521739130434782</v>
+      </c>
+      <c r="BF17">
+        <f t="shared" si="17"/>
+        <v>0.31818181818181818</v>
       </c>
     </row>
   </sheetData>

--- a/3.2.3/3.2.3.xlsx
+++ b/3.2.3/3.2.3.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>f_0n, kHz</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>1/Q</t>
+  </si>
+  <si>
+    <t>0,6f_07</t>
   </si>
 </sst>
 </file>
@@ -467,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1007,7 +1010,7 @@
         <v>1.0156521739130435</v>
       </c>
       <c r="BF4">
-        <f t="shared" ref="BF3:BF17" si="17">BA4/3.14</f>
+        <f t="shared" ref="BF4:BF17" si="17">BA4/3.14</f>
         <v>4.5454545454545456E-2</v>
       </c>
     </row>
@@ -1133,7 +1136,7 @@
         <v>0.98782608695652174</v>
       </c>
       <c r="BF5">
-        <f>AZ5/3.14</f>
+        <f t="shared" ref="BF5:BF11" si="20">AZ5/3.14</f>
         <v>-0.27272727272727276</v>
       </c>
     </row>
@@ -1259,7 +1262,7 @@
         <v>0.99304347826086958</v>
       </c>
       <c r="BF6">
-        <f>AZ6/3.14</f>
+        <f t="shared" si="20"/>
         <v>-0.22727272727272732</v>
       </c>
     </row>
@@ -1382,7 +1385,7 @@
         <v>0.96217391304347821</v>
       </c>
       <c r="BF7">
-        <f>AZ7/3.14</f>
+        <f t="shared" si="20"/>
         <v>-0.31818181818181818</v>
       </c>
     </row>
@@ -1511,7 +1514,7 @@
         <v>0.98086956521739121</v>
       </c>
       <c r="BF8">
-        <f>AZ8/3.14</f>
+        <f t="shared" si="20"/>
         <v>-0.27272727272727276</v>
       </c>
     </row>
@@ -1572,7 +1575,7 @@
         <v>0.99964028776978409</v>
       </c>
       <c r="AV9">
-        <f t="shared" ref="AV3:AV17" si="20">AQ9/3.14</f>
+        <f t="shared" ref="AV9:AV17" si="21">AQ9/3.14</f>
         <v>0</v>
       </c>
       <c r="AZ9">
@@ -1597,7 +1600,7 @@
         <v>0.98347826086956525</v>
       </c>
       <c r="BF9">
-        <f>AZ9/3.14</f>
+        <f t="shared" si="20"/>
         <v>-0.27272727272727276</v>
       </c>
     </row>
@@ -1669,7 +1672,7 @@
         <v>1.0032374100719423</v>
       </c>
       <c r="AV10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AZ10">
@@ -1694,7 +1697,7 @@
         <v>1.0034782608695652</v>
       </c>
       <c r="BF10">
-        <f>AZ10/3.14</f>
+        <f t="shared" si="20"/>
         <v>-0.13636363636363652</v>
       </c>
     </row>
@@ -1785,7 +1788,7 @@
         <v>1.0052173913043478</v>
       </c>
       <c r="BF11">
-        <f>AZ11/3.14</f>
+        <f t="shared" si="20"/>
         <v>-9.0909090909090814E-2</v>
       </c>
     </row>
@@ -1836,7 +1839,7 @@
         <v>1.0125899280575539</v>
       </c>
       <c r="AV12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="BA12">
@@ -1908,7 +1911,7 @@
         <v>1.016546762589928</v>
       </c>
       <c r="AV13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.22222222222222218</v>
       </c>
       <c r="BA13">
@@ -1934,6 +1937,9 @@
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
       <c r="Y14">
         <v>0.93</v>
       </c>
@@ -2010,6 +2016,10 @@
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <f>0.6*C8</f>
+        <v>9.66</v>
+      </c>
       <c r="Y15">
         <v>0.9</v>
       </c>
@@ -2056,7 +2066,7 @@
         <v>1.0352517985611511</v>
       </c>
       <c r="AV15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="BA15">
@@ -2128,7 +2138,7 @@
         <v>1.0446043165467624</v>
       </c>
       <c r="AV16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.3888888888888889</v>
       </c>
       <c r="BA16">
@@ -2200,7 +2210,7 @@
         <v>1.0571942446043165</v>
       </c>
       <c r="AV17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="BA17">

--- a/3.2.3/3.2.3.xlsx
+++ b/3.2.3/3.2.3.xlsx
@@ -471,7 +471,7 @@
   <dimension ref="A1:BF17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
